--- a/examples/data/tables.xlsx
+++ b/examples/data/tables.xlsx
@@ -238,7 +238,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
